--- a/Excel_and_CSV/RenascentMeta_Archetype_Korean.xlsx
+++ b/Excel_and_CSV/RenascentMeta_Archetype_Korean.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Python_WS\Github_SV\Excel_and_CSV\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{255D1B44-6C2E-44B9-ADC4-5345DDCC497F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3E65AAA-7D2A-4698-86C3-87B7CCA45885}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="424" uniqueCount="219">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="440" uniqueCount="225">
   <si>
     <t>Archetype Name</t>
   </si>
@@ -677,13 +677,31 @@
   </si>
   <si>
     <t>72_IA</t>
+  </si>
+  <si>
+    <t>어그로 로얄</t>
+  </si>
+  <si>
+    <t>Vagabond Lizard</t>
+  </si>
+  <si>
+    <t>72DkI</t>
+  </si>
+  <si>
+    <t>Sword-Swinging Bandit</t>
+  </si>
+  <si>
+    <t>76mGC</t>
+  </si>
+  <si>
+    <t>전진 로얄</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -718,6 +736,11 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -733,7 +756,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="12">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -906,11 +929,33 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="10"/>
+      </left>
+      <right style="medium">
+        <color indexed="10"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -962,6 +1007,16 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2122,10 +2177,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H53"/>
+  <dimension ref="A1:H55"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2376,232 +2431,232 @@
         <v>12</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="8" t="s">
+    <row r="10" spans="1:8" ht="15.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="25" t="s">
+        <v>219</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="E10" s="26" t="s">
+        <v>220</v>
+      </c>
+      <c r="F10" s="21" t="s">
+        <v>221</v>
+      </c>
+      <c r="G10" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="H10" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="B10" s="8" t="s">
+      <c r="B11" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="C10" s="8" t="s">
+      <c r="C11" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="D10" s="8" t="s">
+      <c r="D11" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="E10" s="3" t="s">
+      <c r="E11" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="F10" s="9" t="s">
+      <c r="F11" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="G10" s="3" t="s">
+      <c r="G11" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="H10" s="3" t="s">
+      <c r="H11" s="3" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="3" t="s">
+    <row r="12" spans="1:8" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="B11" s="3" t="s">
+      <c r="B12" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="C11" s="3" t="s">
+      <c r="C12" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="D11" s="3" t="s">
+      <c r="D12" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="E11" s="3" t="s">
+      <c r="E12" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="F11" s="3" t="s">
+      <c r="F12" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="G11" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="H11" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" ht="15.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="23" t="s">
+      <c r="G12" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="H12" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="15.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="23" t="s">
         <v>214</v>
       </c>
-      <c r="B12" s="7" t="s">
+      <c r="B13" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="C12" s="5" t="s">
+      <c r="C13" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="D12" s="6" t="s">
+      <c r="D13" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="E12" s="20" t="s">
+      <c r="E13" s="20" t="s">
         <v>217</v>
       </c>
-      <c r="F12" s="21" t="s">
+      <c r="F13" s="21" t="s">
         <v>218</v>
       </c>
-      <c r="G12" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="H12" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="3" t="s">
+      <c r="G13" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="H13" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="B13" s="3" t="s">
+      <c r="B14" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="C13" s="3" t="s">
+      <c r="C14" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="D13" s="10" t="s">
+      <c r="D14" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="E13" s="3" t="s">
+      <c r="E14" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="F13" s="10" t="s">
+      <c r="F14" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="G13" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="H13" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="3" t="s">
+      <c r="G14" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="3" t="s">
+        <v>224</v>
+      </c>
+      <c r="B15" s="27" t="s">
+        <v>37</v>
+      </c>
+      <c r="C15" s="26" t="s">
+        <v>43</v>
+      </c>
+      <c r="D15" s="28" t="s">
+        <v>44</v>
+      </c>
+      <c r="E15" s="26" t="s">
+        <v>222</v>
+      </c>
+      <c r="F15" s="21" t="s">
+        <v>223</v>
+      </c>
+      <c r="G15" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="H15" s="20" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="3" t="s">
         <v>60</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="G14" s="24" t="s">
-        <v>69</v>
-      </c>
-      <c r="H14" s="24" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="D15" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="E15" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="F15" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="G15" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="H15" s="3" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="3" t="s">
-        <v>73</v>
       </c>
       <c r="B16" s="3" t="s">
         <v>61</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="E16" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="G16" s="24" t="s">
         <v>69</v>
       </c>
-      <c r="F16" s="3" t="s">
+      <c r="H16" s="24" t="s">
         <v>70</v>
-      </c>
-      <c r="G16" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="H16" s="3" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="3" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="B17" s="3" t="s">
         <v>61</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="G17" s="3" t="s">
-        <v>12</v>
+        <v>71</v>
       </c>
       <c r="H17" s="3" t="s">
-        <v>12</v>
+        <v>72</v>
       </c>
     </row>
     <row r="18" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="3" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="B18" s="3" t="s">
         <v>61</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>21</v>
+        <v>69</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>22</v>
+        <v>70</v>
       </c>
       <c r="G18" s="3" t="s">
         <v>12</v>
@@ -2612,22 +2667,22 @@
     </row>
     <row r="19" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="3" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="B19" s="3" t="s">
         <v>61</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="G19" s="3" t="s">
         <v>12</v>
@@ -2636,24 +2691,24 @@
         <v>12</v>
       </c>
     </row>
-    <row r="20" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="3" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="B20" s="3" t="s">
         <v>61</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>79</v>
+        <v>21</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>80</v>
+        <v>22</v>
       </c>
       <c r="G20" s="3" t="s">
         <v>12</v>
@@ -2662,102 +2717,102 @@
         <v>12</v>
       </c>
     </row>
-    <row r="21" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="3" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="B21" s="3" t="s">
         <v>61</v>
       </c>
       <c r="C21" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="F21" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="G21" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="H21" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="G22" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="H22" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="C23" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="D21" s="3" t="s">
+      <c r="D23" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="E21" s="3" t="s">
+      <c r="E23" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="F21" s="3" t="s">
+      <c r="F23" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="G21" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="H21" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="3" t="s">
+      <c r="G23" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="H23" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="3" t="s">
         <v>85</v>
-      </c>
-      <c r="B22" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="C22" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="D22" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="E22" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="F22" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="G22" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="H22" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="B23" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="C23" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="D23" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="E23" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="F23" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="G23" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="H23" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="3" t="s">
-        <v>96</v>
       </c>
       <c r="B24" s="3" t="s">
         <v>86</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>21</v>
+        <v>87</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>22</v>
+        <v>88</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="F24" s="3" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="G24" s="3" t="s">
         <v>12</v>
@@ -2766,24 +2821,24 @@
         <v>12</v>
       </c>
     </row>
-    <row r="25" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="3" t="s">
-        <v>102</v>
+        <v>91</v>
       </c>
       <c r="B25" s="3" t="s">
         <v>86</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>103</v>
+        <v>92</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>104</v>
+        <v>93</v>
       </c>
       <c r="E25" s="3" t="s">
-        <v>105</v>
+        <v>94</v>
       </c>
       <c r="F25" s="3" t="s">
-        <v>106</v>
+        <v>95</v>
       </c>
       <c r="G25" s="3" t="s">
         <v>12</v>
@@ -2794,22 +2849,22 @@
     </row>
     <row r="26" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="B26" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="C26" s="20" t="s">
-        <v>215</v>
-      </c>
-      <c r="D26" s="20" t="s">
-        <v>216</v>
+      <c r="C26" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>22</v>
       </c>
       <c r="E26" s="3" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="F26" s="3" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="G26" s="3" t="s">
         <v>12</v>
@@ -2820,74 +2875,74 @@
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="B27" s="3" t="s">
         <v>86</v>
       </c>
       <c r="C27" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="D27" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="E27" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="F27" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="G27" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="H27" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="C28" s="20" t="s">
+        <v>215</v>
+      </c>
+      <c r="D28" s="20" t="s">
+        <v>216</v>
+      </c>
+      <c r="E28" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="F28" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="G28" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="H28" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="C29" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="D27" s="3" t="s">
+      <c r="D29" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="E27" s="3" t="s">
+      <c r="E29" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="F27" s="3" t="s">
+      <c r="F29" s="3" t="s">
         <v>111</v>
-      </c>
-      <c r="G27" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="H27" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="B28" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="C28" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="D28" s="3" t="s">
-        <v>115</v>
-      </c>
-      <c r="E28" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="F28" s="3" t="s">
-        <v>117</v>
-      </c>
-      <c r="G28" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="H28" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="3" t="s">
-        <v>118</v>
-      </c>
-      <c r="B29" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="C29" s="3" t="s">
-        <v>119</v>
-      </c>
-      <c r="D29" s="3" t="s">
-        <v>120</v>
-      </c>
-      <c r="E29" s="3" t="s">
-        <v>121</v>
-      </c>
-      <c r="F29" s="3" t="s">
-        <v>122</v>
       </c>
       <c r="G29" s="3" t="s">
         <v>12</v>
@@ -2898,22 +2953,22 @@
     </row>
     <row r="30" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="3" t="s">
-        <v>123</v>
+        <v>112</v>
       </c>
       <c r="B30" s="3" t="s">
         <v>113</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>124</v>
+        <v>114</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>125</v>
+        <v>115</v>
       </c>
       <c r="E30" s="3" t="s">
-        <v>126</v>
+        <v>116</v>
       </c>
       <c r="F30" s="3" t="s">
-        <v>127</v>
+        <v>117</v>
       </c>
       <c r="G30" s="3" t="s">
         <v>12</v>
@@ -2924,22 +2979,22 @@
     </row>
     <row r="31" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="3" t="s">
-        <v>128</v>
+        <v>118</v>
       </c>
       <c r="B31" s="3" t="s">
         <v>113</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>129</v>
+        <v>119</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="E31" s="3" t="s">
-        <v>131</v>
+        <v>121</v>
       </c>
       <c r="F31" s="3" t="s">
-        <v>132</v>
+        <v>122</v>
       </c>
       <c r="G31" s="3" t="s">
         <v>12</v>
@@ -2950,22 +3005,22 @@
     </row>
     <row r="32" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="3" t="s">
-        <v>133</v>
+        <v>123</v>
       </c>
       <c r="B32" s="3" t="s">
         <v>113</v>
       </c>
-      <c r="C32" s="10" t="s">
-        <v>134</v>
+      <c r="C32" s="3" t="s">
+        <v>124</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="E32" s="10" t="s">
-        <v>136</v>
+        <v>125</v>
+      </c>
+      <c r="E32" s="3" t="s">
+        <v>126</v>
       </c>
       <c r="F32" s="3" t="s">
-        <v>137</v>
+        <v>127</v>
       </c>
       <c r="G32" s="3" t="s">
         <v>12</v>
@@ -2976,22 +3031,22 @@
     </row>
     <row r="33" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="3" t="s">
-        <v>138</v>
+        <v>128</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>139</v>
+        <v>113</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>140</v>
+        <v>129</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>141</v>
+        <v>130</v>
       </c>
       <c r="E33" s="3" t="s">
-        <v>140</v>
+        <v>131</v>
       </c>
       <c r="F33" s="3" t="s">
-        <v>141</v>
+        <v>132</v>
       </c>
       <c r="G33" s="3" t="s">
         <v>12</v>
@@ -3002,22 +3057,22 @@
     </row>
     <row r="34" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="3" t="s">
-        <v>142</v>
+        <v>133</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>139</v>
+        <v>113</v>
       </c>
       <c r="C34" s="10" t="s">
-        <v>143</v>
+        <v>134</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>144</v>
+        <v>135</v>
       </c>
       <c r="E34" s="10" t="s">
-        <v>145</v>
+        <v>136</v>
       </c>
       <c r="F34" s="3" t="s">
-        <v>146</v>
+        <v>137</v>
       </c>
       <c r="G34" s="3" t="s">
         <v>12</v>
@@ -3028,22 +3083,22 @@
     </row>
     <row r="35" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="3" t="s">
-        <v>147</v>
+        <v>138</v>
       </c>
       <c r="B35" s="3" t="s">
         <v>139</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>148</v>
+        <v>140</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
       <c r="E35" s="3" t="s">
-        <v>148</v>
+        <v>140</v>
       </c>
       <c r="F35" s="3" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
       <c r="G35" s="3" t="s">
         <v>12</v>
@@ -3054,22 +3109,22 @@
     </row>
     <row r="36" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="3" t="s">
-        <v>150</v>
+        <v>142</v>
       </c>
       <c r="B36" s="3" t="s">
         <v>139</v>
       </c>
-      <c r="C36" s="3" t="s">
-        <v>151</v>
+      <c r="C36" s="10" t="s">
+        <v>143</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>152</v>
-      </c>
-      <c r="E36" s="3" t="s">
-        <v>153</v>
+        <v>144</v>
+      </c>
+      <c r="E36" s="10" t="s">
+        <v>145</v>
       </c>
       <c r="F36" s="3" t="s">
-        <v>154</v>
+        <v>146</v>
       </c>
       <c r="G36" s="3" t="s">
         <v>12</v>
@@ -3080,48 +3135,48 @@
     </row>
     <row r="37" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="3" t="s">
-        <v>155</v>
+        <v>147</v>
       </c>
       <c r="B37" s="3" t="s">
         <v>139</v>
       </c>
-      <c r="C37" s="10" t="s">
-        <v>21</v>
+      <c r="C37" s="3" t="s">
+        <v>148</v>
       </c>
       <c r="D37" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="E37" s="10" t="s">
-        <v>156</v>
+        <v>149</v>
+      </c>
+      <c r="E37" s="3" t="s">
+        <v>148</v>
       </c>
       <c r="F37" s="3" t="s">
-        <v>157</v>
+        <v>149</v>
       </c>
       <c r="G37" s="3" t="s">
-        <v>148</v>
+        <v>12</v>
       </c>
       <c r="H37" s="3" t="s">
-        <v>149</v>
+        <v>12</v>
       </c>
     </row>
     <row r="38" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="3" t="s">
-        <v>158</v>
+        <v>150</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>159</v>
+        <v>139</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>160</v>
+        <v>151</v>
       </c>
       <c r="D38" s="3" t="s">
-        <v>161</v>
+        <v>152</v>
       </c>
       <c r="E38" s="3" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
       <c r="F38" s="3" t="s">
-        <v>161</v>
+        <v>154</v>
       </c>
       <c r="G38" s="3" t="s">
         <v>12</v>
@@ -3132,154 +3187,154 @@
     </row>
     <row r="39" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="3" t="s">
-        <v>162</v>
+        <v>155</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>159</v>
-      </c>
-      <c r="C39" s="3" t="s">
-        <v>163</v>
+        <v>139</v>
+      </c>
+      <c r="C39" s="10" t="s">
+        <v>21</v>
       </c>
       <c r="D39" s="3" t="s">
-        <v>164</v>
+        <v>22</v>
       </c>
       <c r="E39" s="10" t="s">
-        <v>165</v>
+        <v>156</v>
       </c>
       <c r="F39" s="3" t="s">
-        <v>166</v>
+        <v>157</v>
       </c>
       <c r="G39" s="3" t="s">
-        <v>12</v>
+        <v>148</v>
       </c>
       <c r="H39" s="3" t="s">
-        <v>12</v>
+        <v>149</v>
       </c>
     </row>
     <row r="40" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="3" t="s">
-        <v>167</v>
+        <v>158</v>
       </c>
       <c r="B40" s="3" t="s">
         <v>159</v>
       </c>
       <c r="C40" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="D40" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="E40" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="F40" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="G40" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="H40" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A41" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="B41" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="C41" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="D41" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="E41" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="F41" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="G41" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="H41" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A42" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="B42" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="C42" s="3" t="s">
         <v>168</v>
       </c>
-      <c r="D40" s="3" t="s">
+      <c r="D42" s="3" t="s">
         <v>169</v>
       </c>
-      <c r="E40" s="3" t="s">
+      <c r="E42" s="3" t="s">
         <v>170</v>
       </c>
-      <c r="F40" s="3" t="s">
+      <c r="F42" s="3" t="s">
         <v>171</v>
       </c>
-      <c r="G40" s="10" t="s">
+      <c r="G42" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="H40" s="3" t="s">
+      <c r="H42" s="3" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="41" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="11" t="s">
+    <row r="43" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A43" s="11" t="s">
         <v>172</v>
       </c>
-      <c r="B41" s="11" t="s">
+      <c r="B43" s="11" t="s">
         <v>159</v>
       </c>
-      <c r="C41" s="11" t="s">
+      <c r="C43" s="11" t="s">
         <v>173</v>
       </c>
-      <c r="D41" s="12" t="s">
+      <c r="D43" s="12" t="s">
         <v>174</v>
       </c>
-      <c r="E41" s="11" t="s">
+      <c r="E43" s="11" t="s">
         <v>173</v>
       </c>
-      <c r="F41" s="13" t="s">
+      <c r="F43" s="13" t="s">
         <v>174</v>
       </c>
-      <c r="G41" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="H41" s="14" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="15" t="s">
+      <c r="G43" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="H43" s="14" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A44" s="15" t="s">
         <v>172</v>
       </c>
-      <c r="B42" s="15" t="s">
+      <c r="B44" s="15" t="s">
         <v>159</v>
       </c>
-      <c r="C42" s="15" t="s">
+      <c r="C44" s="15" t="s">
         <v>173</v>
       </c>
-      <c r="D42" s="16" t="s">
+      <c r="D44" s="16" t="s">
         <v>175</v>
       </c>
-      <c r="E42" s="15" t="s">
+      <c r="E44" s="15" t="s">
         <v>173</v>
       </c>
-      <c r="F42" s="16" t="s">
+      <c r="F44" s="16" t="s">
         <v>175</v>
       </c>
-      <c r="G42" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="H42" s="16" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="15" t="s">
-        <v>176</v>
-      </c>
-      <c r="B43" s="15" t="s">
-        <v>159</v>
-      </c>
-      <c r="C43" s="15" t="s">
-        <v>177</v>
-      </c>
-      <c r="D43" s="16" t="s">
-        <v>178</v>
-      </c>
-      <c r="E43" s="16" t="s">
-        <v>170</v>
-      </c>
-      <c r="F43" s="16" t="s">
-        <v>171</v>
-      </c>
-      <c r="G43" s="16" t="s">
-        <v>12</v>
-      </c>
-      <c r="H43" s="16" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="16" t="s">
-        <v>179</v>
-      </c>
-      <c r="B44" s="16" t="s">
-        <v>159</v>
-      </c>
-      <c r="C44" s="16" t="s">
-        <v>170</v>
-      </c>
-      <c r="D44" s="16" t="s">
-        <v>171</v>
-      </c>
-      <c r="E44" s="16" t="s">
-        <v>170</v>
-      </c>
-      <c r="F44" s="16" t="s">
-        <v>171</v>
-      </c>
-      <c r="G44" s="16" t="s">
+      <c r="G44" s="12" t="s">
         <v>12</v>
       </c>
       <c r="H44" s="16" t="s">
@@ -3288,235 +3343,287 @@
     </row>
     <row r="45" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="15" t="s">
+        <v>176</v>
+      </c>
+      <c r="B45" s="15" t="s">
+        <v>159</v>
+      </c>
+      <c r="C45" s="15" t="s">
+        <v>177</v>
+      </c>
+      <c r="D45" s="16" t="s">
+        <v>178</v>
+      </c>
+      <c r="E45" s="16" t="s">
+        <v>170</v>
+      </c>
+      <c r="F45" s="16" t="s">
+        <v>171</v>
+      </c>
+      <c r="G45" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="H45" s="16" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A46" s="16" t="s">
+        <v>179</v>
+      </c>
+      <c r="B46" s="16" t="s">
+        <v>159</v>
+      </c>
+      <c r="C46" s="16" t="s">
+        <v>170</v>
+      </c>
+      <c r="D46" s="16" t="s">
+        <v>171</v>
+      </c>
+      <c r="E46" s="16" t="s">
+        <v>170</v>
+      </c>
+      <c r="F46" s="16" t="s">
+        <v>171</v>
+      </c>
+      <c r="G46" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="H46" s="16" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A47" s="15" t="s">
         <v>180</v>
       </c>
-      <c r="B45" s="15" t="s">
+      <c r="B47" s="15" t="s">
         <v>181</v>
       </c>
-      <c r="C45" s="15" t="s">
+      <c r="C47" s="15" t="s">
         <v>182</v>
       </c>
-      <c r="D45" s="15" t="s">
+      <c r="D47" s="15" t="s">
         <v>183</v>
       </c>
-      <c r="E45" s="16" t="s">
+      <c r="E47" s="16" t="s">
         <v>184</v>
       </c>
-      <c r="F45" s="16" t="s">
+      <c r="F47" s="16" t="s">
         <v>185</v>
       </c>
-      <c r="G45" s="16" t="s">
-        <v>12</v>
-      </c>
-      <c r="H45" s="16" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="17" t="s">
+      <c r="G47" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="H47" s="16" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A48" s="17" t="s">
         <v>180</v>
       </c>
-      <c r="B46" s="17" t="s">
+      <c r="B48" s="17" t="s">
         <v>181</v>
       </c>
-      <c r="C46" s="17" t="s">
+      <c r="C48" s="17" t="s">
         <v>182</v>
       </c>
-      <c r="D46" s="17" t="s">
+      <c r="D48" s="17" t="s">
         <v>186</v>
       </c>
-      <c r="E46" s="18" t="s">
+      <c r="E48" s="18" t="s">
         <v>184</v>
       </c>
-      <c r="F46" s="18" t="s">
+      <c r="F48" s="18" t="s">
         <v>185</v>
       </c>
-      <c r="G46" s="18" t="s">
-        <v>12</v>
-      </c>
-      <c r="H46" s="18" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="3" t="s">
+      <c r="G48" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="H48" s="18" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A49" s="3" t="s">
         <v>187</v>
       </c>
-      <c r="B47" s="3" t="s">
+      <c r="B49" s="3" t="s">
         <v>181</v>
       </c>
-      <c r="C47" s="3" t="s">
+      <c r="C49" s="3" t="s">
         <v>188</v>
       </c>
-      <c r="D47" s="3" t="s">
+      <c r="D49" s="3" t="s">
         <v>189</v>
       </c>
-      <c r="E47" s="3" t="s">
+      <c r="E49" s="3" t="s">
         <v>190</v>
       </c>
-      <c r="F47" s="3" t="s">
+      <c r="F49" s="3" t="s">
         <v>191</v>
       </c>
-      <c r="G47" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="H47" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="3" t="s">
+      <c r="G49" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="H49" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A50" s="3" t="s">
         <v>192</v>
       </c>
-      <c r="B48" s="3" t="s">
+      <c r="B50" s="3" t="s">
         <v>181</v>
       </c>
-      <c r="C48" s="3" t="s">
+      <c r="C50" s="3" t="s">
         <v>193</v>
       </c>
-      <c r="D48" s="3" t="s">
+      <c r="D50" s="3" t="s">
         <v>194</v>
       </c>
-      <c r="E48" s="3" t="s">
+      <c r="E50" s="3" t="s">
         <v>195</v>
       </c>
-      <c r="F48" s="3" t="s">
+      <c r="F50" s="3" t="s">
         <v>196</v>
       </c>
-      <c r="G48" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="H48" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="11" t="s">
+      <c r="G50" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="H50" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A51" s="11" t="s">
         <v>197</v>
       </c>
-      <c r="B49" s="11" t="s">
+      <c r="B51" s="11" t="s">
         <v>181</v>
       </c>
-      <c r="C49" s="12" t="s">
+      <c r="C51" s="12" t="s">
         <v>198</v>
       </c>
-      <c r="D49" s="12" t="s">
+      <c r="D51" s="12" t="s">
         <v>199</v>
       </c>
-      <c r="E49" s="12" t="s">
+      <c r="E51" s="12" t="s">
         <v>184</v>
       </c>
-      <c r="F49" s="12" t="s">
+      <c r="F51" s="12" t="s">
         <v>185</v>
       </c>
-      <c r="G49" s="12" t="s">
+      <c r="G51" s="12" t="s">
         <v>200</v>
       </c>
-      <c r="H49" s="12" t="s">
+      <c r="H51" s="12" t="s">
         <v>201</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="15" t="s">
-        <v>202</v>
-      </c>
-      <c r="B50" s="15" t="s">
-        <v>181</v>
-      </c>
-      <c r="C50" s="16" t="s">
-        <v>184</v>
-      </c>
-      <c r="D50" s="16" t="s">
-        <v>185</v>
-      </c>
-      <c r="E50" s="16" t="s">
-        <v>184</v>
-      </c>
-      <c r="F50" s="16" t="s">
-        <v>185</v>
-      </c>
-      <c r="G50" s="18" t="s">
-        <v>200</v>
-      </c>
-      <c r="H50" s="18" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="15" t="s">
-        <v>203</v>
-      </c>
-      <c r="B51" s="15" t="s">
-        <v>181</v>
-      </c>
-      <c r="C51" s="16" t="s">
-        <v>200</v>
-      </c>
-      <c r="D51" s="16" t="s">
-        <v>201</v>
-      </c>
-      <c r="E51" s="16" t="s">
-        <v>204</v>
-      </c>
-      <c r="F51" s="19" t="s">
-        <v>205</v>
-      </c>
-      <c r="G51" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="H51" s="3" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="52" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="15" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="B52" s="15" t="s">
         <v>181</v>
       </c>
       <c r="C52" s="16" t="s">
-        <v>207</v>
+        <v>184</v>
       </c>
       <c r="D52" s="16" t="s">
-        <v>208</v>
+        <v>185</v>
       </c>
       <c r="E52" s="16" t="s">
-        <v>207</v>
-      </c>
-      <c r="F52" s="19" t="s">
-        <v>208</v>
-      </c>
-      <c r="G52" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="H52" s="3" t="s">
-        <v>12</v>
+        <v>184</v>
+      </c>
+      <c r="F52" s="16" t="s">
+        <v>185</v>
+      </c>
+      <c r="G52" s="18" t="s">
+        <v>200</v>
+      </c>
+      <c r="H52" s="18" t="s">
+        <v>201</v>
       </c>
     </row>
     <row r="53" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="15" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="B53" s="15" t="s">
         <v>181</v>
       </c>
       <c r="C53" s="16" t="s">
+        <v>200</v>
+      </c>
+      <c r="D53" s="16" t="s">
+        <v>201</v>
+      </c>
+      <c r="E53" s="16" t="s">
+        <v>204</v>
+      </c>
+      <c r="F53" s="19" t="s">
+        <v>205</v>
+      </c>
+      <c r="G53" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="H53" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A54" s="15" t="s">
+        <v>206</v>
+      </c>
+      <c r="B54" s="15" t="s">
+        <v>181</v>
+      </c>
+      <c r="C54" s="16" t="s">
+        <v>207</v>
+      </c>
+      <c r="D54" s="16" t="s">
+        <v>208</v>
+      </c>
+      <c r="E54" s="16" t="s">
+        <v>207</v>
+      </c>
+      <c r="F54" s="19" t="s">
+        <v>208</v>
+      </c>
+      <c r="G54" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="H54" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A55" s="15" t="s">
+        <v>209</v>
+      </c>
+      <c r="B55" s="15" t="s">
+        <v>181</v>
+      </c>
+      <c r="C55" s="16" t="s">
         <v>210</v>
       </c>
-      <c r="D53" s="16" t="s">
+      <c r="D55" s="16" t="s">
         <v>211</v>
       </c>
-      <c r="E53" s="15" t="s">
+      <c r="E55" s="15" t="s">
         <v>212</v>
       </c>
-      <c r="F53" s="19" t="s">
+      <c r="F55" s="19" t="s">
         <v>213</v>
       </c>
-      <c r="G53" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="H53" s="3" t="s">
+      <c r="G55" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="H55" s="3" t="s">
         <v>12</v>
       </c>
     </row>
